--- a/2022/1.FORD COURIER.xlsx
+++ b/2022/1.FORD COURIER.xlsx
@@ -672,7 +672,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="E7" s="29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="23">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E8" s="29" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="23">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="E10" s="29" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="23">
@@ -1375,7 +1375,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -2085,7 +2085,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -2795,7 +2795,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="E8" s="29" t="n">
-        <v>200</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="23">
@@ -4215,7 +4215,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -4925,7 +4925,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -5635,7 +5635,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -6345,7 +6345,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -7055,7 +7055,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -7765,7 +7765,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>
@@ -8475,7 +8475,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="4.14" customWidth="1" style="21" min="1" max="1"/>
     <col width="13.71" customWidth="1" style="21" min="2" max="4"/>

--- a/2022/1.FORD COURIER.xlsx
+++ b/2022/1.FORD COURIER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/pojazdy/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/cars/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3757BB5A-AA2C-2549-99AA-75630DC331ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB4904-E84D-7742-9AE8-880F97260F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25700" windowHeight="13980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="styczen" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="pazdziernik" sheetId="10" r:id="rId10"/>
     <sheet name="listopad" sheetId="11" r:id="rId11"/>
     <sheet name="grudzien" sheetId="12" r:id="rId12"/>
+    <sheet name="ochrona_srodowiska" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="61">
   <si>
     <t>ROZLICZENIE MIESIĘCZNE ZUŻYCIA PALIWA</t>
   </si>
@@ -211,6 +212,21 @@
   </si>
   <si>
     <t>grudzien</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>sierpień</t>
+  </si>
+  <si>
+    <t>grudzień</t>
+  </si>
+  <si>
+    <t>SUMA</t>
   </si>
 </sst>
 </file>
@@ -444,18 +460,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -784,7 +800,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -794,7 +810,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -803,7 +819,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -1250,34 +1266,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1286,6 +1292,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.0416666666666701E-2" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1310,7 +1326,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -1319,7 +1335,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -1329,7 +1345,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -1338,7 +1354,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -1784,34 +1800,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1820,6 +1826,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1848,7 +1864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -1857,7 +1873,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -1867,7 +1883,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -1876,7 +1892,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -2322,34 +2338,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2358,6 +2364,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2386,7 +2402,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -2395,7 +2411,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -2405,7 +2421,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -2414,7 +2430,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -2860,34 +2876,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2896,6 +2902,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2903,6 +2919,138 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5646CB6-AA9F-974F-A48E-89024FD10AFC}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1">
+        <f>styczen!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <f>luty!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <f>marzec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <f>kwiecien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <f>maj!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <f>czerwiec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>lipiec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>sierpien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <f>wrzesien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <f>pazdziernik!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>listopad!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <f>grudzien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B1:B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2924,7 +3072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -2933,7 +3081,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -2943,7 +3091,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -2952,7 +3100,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -3398,34 +3546,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -3434,6 +3572,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3462,7 +3610,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -3471,7 +3619,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -3481,7 +3629,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -3490,7 +3638,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -3936,34 +4084,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -3972,6 +4110,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3986,7 +4134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4000,7 +4148,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -4009,7 +4157,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -4019,7 +4167,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -4028,7 +4176,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -4474,34 +4622,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -4510,6 +4648,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4538,7 +4686,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -4547,7 +4695,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -4557,7 +4705,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -4566,7 +4714,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -5012,34 +5160,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5048,6 +5186,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5076,7 +5224,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -5085,7 +5233,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -5095,7 +5243,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -5104,7 +5252,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -5550,34 +5698,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5586,6 +5724,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5614,7 +5762,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -5623,7 +5771,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -5633,7 +5781,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -5642,7 +5790,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -6088,34 +6236,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6124,6 +6262,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6152,7 +6300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -6161,7 +6309,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -6171,7 +6319,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -6180,7 +6328,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -6626,34 +6774,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6662,6 +6800,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6690,7 +6838,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -6699,7 +6847,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -6709,7 +6857,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -6718,7 +6866,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -7164,34 +7312,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -7200,6 +7338,16 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
